--- a/biology/Zoologie/Anisotoma_humeralis/Anisotoma_humeralis.xlsx
+++ b/biology/Zoologie/Anisotoma_humeralis/Anisotoma_humeralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphicyllis globus est une espèce d'insectes coléoptères de la famille des Leiodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphicyllis globus est une espèce d'insectes coléoptères de la famille des Leiodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur taille varie entre 2,7 et 4 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur taille varie entre 2,7 et 4 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 août 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 août 2012) :
 Anisotoma humeralis corticina Trella, 1924</t>
         </is>
       </c>
@@ -573,16 +589,18 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 août 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 août 2012) :
 Anisotoma graminis (Gistel, 1857)
 Leiodes armata Stephens, 1829
 Liodes graminis Gistel, 1857
 Sphaeridium humerale Fabricius, 1792
 Tetratoma clavipes Herbst, 1792
 Tetratoma humeralis Herbst, 1791
-Selon INPN      (22 août 2014)[4] :
+Selon INPN      (22 août 2014) :
 Anisotoma corticina Trella, 1924
 Liodes humeralis Erichson, 1845
 Tetratoma globosa Herbst, 1792</t>
